--- a/output/1Y_P92_KFSDIV.xlsx
+++ b/output/1Y_P92_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.2392</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="F3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0254</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.1873</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E4" s="1">
-        <v>1978.7432</v>
+        <v>1974.7874</v>
       </c>
       <c r="F4" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="H4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1074</v>
+        <v>10.1277</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0209</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.4058</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E5" s="1">
-        <v>2960.3576</v>
+        <v>2954.44</v>
       </c>
       <c r="F5" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="H5" s="1">
-        <v>30804.8889</v>
+        <v>30681.8593</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30804.8889</v>
+        <v>30681.8593</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1339</v>
+        <v>10.1542</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0214</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.2688</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E6" s="1">
-        <v>3921.3601</v>
+        <v>3913.5162</v>
       </c>
       <c r="F6" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="H6" s="1">
-        <v>40267.6626</v>
+        <v>40106.8882</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40267.6626</v>
+        <v>40106.8882</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2005</v>
+        <v>10.221</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>266.4322</v>
+        <v>265.8996</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9733.567800000001</v>
+        <v>-9734.100399999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0132</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.4938</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E7" s="1">
-        <v>4895.1837</v>
+        <v>4885.3902</v>
       </c>
       <c r="F7" s="1">
-        <v>956.5707</v>
+        <v>954.653</v>
       </c>
       <c r="H7" s="1">
-        <v>51369.0789</v>
+        <v>51163.7143</v>
       </c>
       <c r="I7" s="1">
-        <v>266.4322</v>
+        <v>265.8996</v>
       </c>
       <c r="J7" s="1">
-        <v>51635.5111</v>
+        <v>51429.6139</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2141</v>
+        <v>10.2346</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10038.0617</v>
+        <v>-10037.9857</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0272</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.5481</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E8" s="1">
-        <v>5851.7544</v>
+        <v>5840.0432</v>
       </c>
       <c r="F8" s="1">
-        <v>951.6464</v>
+        <v>949.7394</v>
       </c>
       <c r="H8" s="1">
-        <v>61724.8909</v>
+        <v>61478.1348</v>
       </c>
       <c r="I8" s="1">
-        <v>228.3704</v>
+        <v>227.9139</v>
       </c>
       <c r="J8" s="1">
-        <v>61953.2614</v>
+        <v>61706.0488</v>
       </c>
       <c r="K8" s="1">
-        <v>60038.0617</v>
+        <v>60037.9857</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2598</v>
+        <v>10.2804</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10038.0617</v>
+        <v>-10037.9857</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0052</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.3262</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E9" s="1">
-        <v>6803.4009</v>
+        <v>6789.7826</v>
       </c>
       <c r="F9" s="1">
-        <v>972.0964</v>
+        <v>970.1443</v>
       </c>
       <c r="H9" s="1">
-        <v>70253.27800000001</v>
+        <v>69972.10460000001</v>
       </c>
       <c r="I9" s="1">
-        <v>190.3087</v>
+        <v>189.9283</v>
       </c>
       <c r="J9" s="1">
-        <v>70443.5867</v>
+        <v>70162.03290000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70076.1235</v>
+        <v>70075.9713</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3002</v>
+        <v>10.3208</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1316.6447</v>
+        <v>1314.0097</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8721.416999999999</v>
+        <v>-8723.975899999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.021</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.462</v>
       </c>
       <c r="C10" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D10" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E10" s="1">
-        <v>7775.4973</v>
+        <v>7759.9269</v>
       </c>
       <c r="F10" s="1">
-        <v>990.9408</v>
+        <v>988.8856</v>
       </c>
       <c r="H10" s="1">
-        <v>81347.25229999999</v>
+        <v>81022.1724</v>
       </c>
       <c r="I10" s="1">
-        <v>1468.8917</v>
+        <v>1465.9523</v>
       </c>
       <c r="J10" s="1">
-        <v>82816.144</v>
+        <v>82488.12480000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80114.18520000001</v>
+        <v>80113.95699999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3034</v>
+        <v>10.3241</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10367.2229</v>
+        <v>-10366.4881</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0295</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.5775</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E11" s="1">
-        <v>8766.438099999999</v>
+        <v>8748.8125</v>
       </c>
       <c r="F11" s="1">
-        <v>980.1203</v>
+        <v>978.0905</v>
       </c>
       <c r="H11" s="1">
-        <v>92726.9988</v>
+        <v>92355.0894</v>
       </c>
       <c r="I11" s="1">
-        <v>1101.6688</v>
+        <v>1099.4643</v>
       </c>
       <c r="J11" s="1">
-        <v>93828.6676</v>
+        <v>93454.5537</v>
       </c>
       <c r="K11" s="1">
-        <v>90481.4081</v>
+        <v>90480.4451</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3213</v>
+        <v>10.342</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10367.2229</v>
+        <v>-10366.4881</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0109</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.7066</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E12" s="1">
-        <v>9746.5584</v>
+        <v>9726.903</v>
       </c>
       <c r="F12" s="1">
-        <v>968.3021</v>
+        <v>966.293</v>
       </c>
       <c r="H12" s="1">
-        <v>104352.5024</v>
+        <v>103933.9042</v>
       </c>
       <c r="I12" s="1">
-        <v>734.4459000000001</v>
+        <v>732.9761999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>105086.9483</v>
+        <v>104666.8804</v>
       </c>
       <c r="K12" s="1">
-        <v>100848.6311</v>
+        <v>100846.9331</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3471</v>
+        <v>10.3678</v>
       </c>
       <c r="M12" s="1">
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
-        <v>1577.9589</v>
+        <v>1574.7863</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8789.2641</v>
+        <v>-8791.701800000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0121</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.1511</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E13" s="1">
-        <v>10714.8605</v>
+        <v>10693.196</v>
       </c>
       <c r="F13" s="1">
-        <v>1071.2111</v>
+        <v>1068.7139</v>
       </c>
       <c r="H13" s="1">
-        <v>119482.4809</v>
+        <v>119002.4401</v>
       </c>
       <c r="I13" s="1">
-        <v>1945.1818</v>
+        <v>1941.2743</v>
       </c>
       <c r="J13" s="1">
-        <v>121427.6626</v>
+        <v>120943.7145</v>
       </c>
       <c r="K13" s="1">
-        <v>111215.854</v>
+        <v>111213.4212</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3796</v>
+        <v>10.4004</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11945.1818</v>
+        <v>-11941.2743</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0551</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.5294</v>
       </c>
       <c r="C14" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D14" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E14" s="1">
-        <v>11786.0716</v>
+        <v>11761.9099</v>
       </c>
       <c r="F14" s="1">
-        <v>-11786.0716</v>
+        <v>-11761.9099</v>
       </c>
       <c r="H14" s="1">
-        <v>135886.3335</v>
+        <v>135336.0639</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>135886.3335</v>
+        <v>135336.0639</v>
       </c>
       <c r="K14" s="1">
-        <v>123161.0358</v>
+        <v>123154.6956</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4497</v>
+        <v>10.4706</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135886.3335</v>
+        <v>135336.0639</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0339</v>
+        <v>0.0335</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.2392</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="F3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0254</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.1873</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E4" s="1">
-        <v>1978.7432</v>
+        <v>1974.7874</v>
       </c>
       <c r="F4" s="1">
-        <v>966.0999</v>
+        <v>975.9646</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1074</v>
+        <v>10.1277</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9841.949199999999</v>
+        <v>-9962.3536</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0209</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.4058</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E5" s="1">
-        <v>2944.8431</v>
+        <v>2950.7519</v>
       </c>
       <c r="F5" s="1">
-        <v>899.167</v>
+        <v>900.9571999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30643.4482</v>
+        <v>30643.559</v>
       </c>
       <c r="I5" s="1">
-        <v>158.0508</v>
+        <v>37.6464</v>
       </c>
       <c r="J5" s="1">
-        <v>30801.499</v>
+        <v>30681.2054</v>
       </c>
       <c r="K5" s="1">
-        <v>29841.9492</v>
+        <v>29962.3536</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1336</v>
+        <v>10.1541</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9356.551799999999</v>
+        <v>-9394.010899999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0213</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.2688</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E6" s="1">
-        <v>3844.0101</v>
+        <v>3851.7092</v>
       </c>
       <c r="F6" s="1">
-        <v>1025.108</v>
+        <v>1027.1488</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39473.3706</v>
+        <v>39473.4714</v>
       </c>
       <c r="I6" s="1">
-        <v>801.499</v>
+        <v>643.6355</v>
       </c>
       <c r="J6" s="1">
-        <v>40274.8696</v>
+        <v>40117.1069</v>
       </c>
       <c r="K6" s="1">
-        <v>39198.501</v>
+        <v>39356.3645</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1973</v>
+        <v>10.2179</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>265.0359</v>
+        <v>265.5677</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10261.5935</v>
+        <v>-10303.1768</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0129</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.4938</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E7" s="1">
-        <v>4869.1181</v>
+        <v>4878.858</v>
       </c>
       <c r="F7" s="1">
-        <v>848.5438</v>
+        <v>850.2689</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51095.5516</v>
+        <v>51095.3036</v>
       </c>
       <c r="I7" s="1">
-        <v>539.9055</v>
+        <v>340.4587</v>
       </c>
       <c r="J7" s="1">
-        <v>51635.4571</v>
+        <v>51435.7624</v>
       </c>
       <c r="K7" s="1">
-        <v>49725.1304</v>
+        <v>49925.1089</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2123</v>
+        <v>10.2329</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8904.448399999999</v>
+        <v>-8940.4077</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0271</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.5481</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E8" s="1">
-        <v>5717.6619</v>
+        <v>5729.1269</v>
       </c>
       <c r="F8" s="1">
-        <v>918.6044000000001</v>
+        <v>920.4409000000001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60310.469</v>
+        <v>60310.5187</v>
       </c>
       <c r="I8" s="1">
-        <v>1635.4571</v>
+        <v>1400.0511</v>
       </c>
       <c r="J8" s="1">
-        <v>61945.9261</v>
+        <v>61710.5697</v>
       </c>
       <c r="K8" s="1">
-        <v>58629.5788</v>
+        <v>58865.5166</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2541</v>
+        <v>10.2748</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9689.531000000001</v>
+        <v>-9728.323899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.3262</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E9" s="1">
-        <v>6636.2662</v>
+        <v>6649.5678</v>
       </c>
       <c r="F9" s="1">
-        <v>1111.0174</v>
+        <v>1113.2773</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68527.41250000001</v>
+        <v>68527.1207</v>
       </c>
       <c r="I9" s="1">
-        <v>1945.9261</v>
+        <v>1671.7271</v>
       </c>
       <c r="J9" s="1">
-        <v>70473.3386</v>
+        <v>70198.84789999999</v>
       </c>
       <c r="K9" s="1">
-        <v>68319.10980000001</v>
+        <v>68593.84050000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2948</v>
+        <v>10.3155</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1286.4739</v>
+        <v>1289.0535</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10186.1136</v>
+        <v>-10229.9154</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0205</v>
+        <v>-0.0211</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.462</v>
       </c>
       <c r="C10" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D10" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E10" s="1">
-        <v>7747.2836</v>
+        <v>7762.8451</v>
       </c>
       <c r="F10" s="1">
-        <v>855.278</v>
+        <v>856.9364</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81052.0811</v>
+        <v>81052.6418</v>
       </c>
       <c r="I10" s="1">
-        <v>1759.8126</v>
+        <v>1441.8117</v>
       </c>
       <c r="J10" s="1">
-        <v>82811.8937</v>
+        <v>82494.4535</v>
       </c>
       <c r="K10" s="1">
-        <v>79791.6972</v>
+        <v>80112.8095</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2993</v>
+        <v>10.32</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8947.918900000001</v>
+        <v>-8983.263800000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0291</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.5775</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E11" s="1">
-        <v>8602.5617</v>
+        <v>8619.7814</v>
       </c>
       <c r="F11" s="1">
-        <v>851.4681</v>
+        <v>853.2347</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90993.5959</v>
+        <v>90992.9988</v>
       </c>
       <c r="I11" s="1">
-        <v>2811.8937</v>
+        <v>2458.5479</v>
       </c>
       <c r="J11" s="1">
-        <v>93805.4895</v>
+        <v>93451.54670000001</v>
       </c>
       <c r="K11" s="1">
-        <v>88739.6161</v>
+        <v>89096.0733</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3155</v>
+        <v>10.3362</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9006.4041</v>
+        <v>-9043.1783</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0107</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.7066</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E12" s="1">
-        <v>9454.0298</v>
+        <v>9473.016100000001</v>
       </c>
       <c r="F12" s="1">
-        <v>820.0068</v>
+        <v>821.597</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101220.5152</v>
+        <v>101221.0718</v>
       </c>
       <c r="I12" s="1">
-        <v>3805.4895</v>
+        <v>3415.3696</v>
       </c>
       <c r="J12" s="1">
-        <v>105026.0048</v>
+        <v>104636.4413</v>
       </c>
       <c r="K12" s="1">
-        <v>97746.0203</v>
+        <v>98139.25169999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3391</v>
+        <v>10.3599</v>
       </c>
       <c r="M12" s="1">
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
-        <v>1548.4611</v>
+        <v>1551.5607</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7231.0237</v>
+        <v>-7262.6141</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0118</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.1511</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E13" s="1">
-        <v>10274.0366</v>
+        <v>10294.6131</v>
       </c>
       <c r="F13" s="1">
-        <v>487.2336</v>
+        <v>488.2206</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>114566.8093</v>
+        <v>114566.6904</v>
       </c>
       <c r="I13" s="1">
-        <v>6574.4659</v>
+        <v>6152.7555</v>
       </c>
       <c r="J13" s="1">
-        <v>121141.2751</v>
+        <v>120719.4459</v>
       </c>
       <c r="K13" s="1">
-        <v>106525.505</v>
+        <v>106953.4264</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3684</v>
+        <v>10.3893</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5433.1907</v>
+        <v>-5455.1331</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0532</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.5294</v>
       </c>
       <c r="C14" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D14" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E14" s="1">
-        <v>10761.2702</v>
+        <v>10782.8337</v>
       </c>
       <c r="F14" s="1">
-        <v>-10761.2702</v>
+        <v>-10782.8337</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124070.9885</v>
+        <v>124070.5197</v>
       </c>
       <c r="I14" s="1">
-        <v>11141.2751</v>
+        <v>10697.6224</v>
       </c>
       <c r="J14" s="1">
-        <v>135212.2637</v>
+        <v>134768.1421</v>
       </c>
       <c r="K14" s="1">
-        <v>111958.6957</v>
+        <v>112408.5595</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4039</v>
+        <v>10.4248</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124070.9885</v>
+        <v>124070.5197</v>
       </c>
       <c r="Q14" s="3">
         <v>0.031</v>
@@ -2224,16 +2224,16 @@
         <v>10.2392</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="F3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0254</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.1873</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E4" s="1">
-        <v>1978.7432</v>
+        <v>1974.7874</v>
       </c>
       <c r="F4" s="1">
-        <v>980.8486</v>
+        <v>979.6526</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1074</v>
+        <v>10.1277</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9992.199199999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0209</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.4058</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E5" s="1">
-        <v>2959.5918</v>
+        <v>2954.44</v>
       </c>
       <c r="F5" s="1">
-        <v>913.3445</v>
+        <v>926.2534000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30796.9208</v>
+        <v>30681.8593</v>
       </c>
       <c r="I5" s="1">
-        <v>7.8008</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30804.7216</v>
+        <v>30681.8593</v>
       </c>
       <c r="K5" s="1">
-        <v>29992.1992</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1339</v>
+        <v>10.1542</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9504.080400000001</v>
+        <v>-9657.7667</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0214</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.2688</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E6" s="1">
-        <v>3872.9364</v>
+        <v>3880.6934</v>
       </c>
       <c r="F6" s="1">
-        <v>1022.8771</v>
+        <v>1005.1347</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39770.409</v>
+        <v>39770.5105</v>
       </c>
       <c r="I6" s="1">
-        <v>503.7204</v>
+        <v>342.2333</v>
       </c>
       <c r="J6" s="1">
-        <v>40274.1293</v>
+        <v>40112.7438</v>
       </c>
       <c r="K6" s="1">
-        <v>39496.2796</v>
+        <v>39657.7667</v>
       </c>
       <c r="L6" s="1">
-        <v>10.198</v>
+        <v>10.2192</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>266.3633</v>
+        <v>265.8996</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10237.3571</v>
+        <v>-10076.3337</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.4938</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E7" s="1">
-        <v>4895.8135</v>
+        <v>4885.8282</v>
       </c>
       <c r="F7" s="1">
-        <v>893.7974</v>
+        <v>915.3920000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51375.6874</v>
+        <v>51168.3012</v>
       </c>
       <c r="I7" s="1">
-        <v>266.3633</v>
+        <v>265.8996</v>
       </c>
       <c r="J7" s="1">
-        <v>51642.0506</v>
+        <v>51434.2008</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2128</v>
+        <v>10.2337</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9379.331399999999</v>
+        <v>-9625.1641</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0272</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.5481</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E8" s="1">
-        <v>5789.6109</v>
+        <v>5801.2202</v>
       </c>
       <c r="F8" s="1">
-        <v>947.033</v>
+        <v>948.9265</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61069.3947</v>
+        <v>61069.4449</v>
       </c>
       <c r="I8" s="1">
-        <v>887.0318</v>
+        <v>640.7355</v>
       </c>
       <c r="J8" s="1">
-        <v>61956.4265</v>
+        <v>61710.1804</v>
       </c>
       <c r="K8" s="1">
-        <v>59379.3314</v>
+        <v>59625.1641</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2562</v>
+        <v>10.278</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9989.3992</v>
+        <v>-10029.3937</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0051</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.3262</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E9" s="1">
-        <v>6736.6439</v>
+        <v>6750.1467</v>
       </c>
       <c r="F9" s="1">
-        <v>1055.3381</v>
+        <v>1025.5576</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69563.9326</v>
+        <v>69563.6364</v>
       </c>
       <c r="I9" s="1">
-        <v>897.6326</v>
+        <v>611.3419</v>
       </c>
       <c r="J9" s="1">
-        <v>70461.5652</v>
+        <v>70174.9783</v>
       </c>
       <c r="K9" s="1">
-        <v>69368.7306</v>
+        <v>69654.5577</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2972</v>
+        <v>10.319</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1302.6625</v>
+        <v>1305.2745</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9594.9702</v>
+        <v>-9306.067300000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0208</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.462</v>
       </c>
       <c r="C10" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D10" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E10" s="1">
-        <v>7791.9821</v>
+        <v>7775.7043</v>
       </c>
       <c r="F10" s="1">
-        <v>984.6532</v>
+        <v>1018.4993</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81519.7164</v>
+        <v>81186.9057</v>
       </c>
       <c r="I10" s="1">
-        <v>1302.6625</v>
+        <v>1305.2745</v>
       </c>
       <c r="J10" s="1">
-        <v>82822.37880000001</v>
+        <v>82492.1802</v>
       </c>
       <c r="K10" s="1">
-        <v>80266.3633</v>
+        <v>80265.8996</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3011</v>
+        <v>10.3227</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10301.4419</v>
+        <v>-10676.9277</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0293</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.5775</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E11" s="1">
-        <v>8776.6353</v>
+        <v>8794.2035</v>
       </c>
       <c r="F11" s="1">
-        <v>892.9713</v>
+        <v>894.8224</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92834.8597</v>
+        <v>92834.25049999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1001.2205</v>
+        <v>628.3468</v>
       </c>
       <c r="J11" s="1">
-        <v>93836.0802</v>
+        <v>93462.59729999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90567.8052</v>
+        <v>90942.8273</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3192</v>
+        <v>10.3412</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9445.404399999999</v>
+        <v>-9483.954</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0109</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.7066</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E12" s="1">
-        <v>9669.606599999999</v>
+        <v>9689.025900000001</v>
       </c>
       <c r="F12" s="1">
-        <v>865.1724</v>
+        <v>866.8519</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103528.6103</v>
+        <v>103529.1795</v>
       </c>
       <c r="I12" s="1">
-        <v>1555.8161</v>
+        <v>1144.3928</v>
       </c>
       <c r="J12" s="1">
-        <v>105084.4264</v>
+        <v>104673.5723</v>
       </c>
       <c r="K12" s="1">
-        <v>100013.2096</v>
+        <v>100426.7814</v>
       </c>
       <c r="L12" s="1">
-        <v>10.343</v>
+        <v>10.365</v>
       </c>
       <c r="M12" s="1">
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
-        <v>1579.7944</v>
+        <v>1582.9566</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7683.2608</v>
+        <v>-7716.7172</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.012</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.1511</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E13" s="1">
-        <v>10534.7791</v>
+        <v>10555.8778</v>
       </c>
       <c r="F13" s="1">
-        <v>527.4142000000001</v>
+        <v>528.482</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>117474.3747</v>
+        <v>117474.2528</v>
       </c>
       <c r="I13" s="1">
-        <v>3872.5554</v>
+        <v>3427.6756</v>
       </c>
       <c r="J13" s="1">
-        <v>121346.9301</v>
+        <v>120901.9284</v>
       </c>
       <c r="K13" s="1">
-        <v>109276.2647</v>
+        <v>109726.4552</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3729</v>
+        <v>10.3948</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5881.249</v>
+        <v>-5904.9941</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0544</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.5294</v>
       </c>
       <c r="C14" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D14" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E14" s="1">
-        <v>11062.1933</v>
+        <v>11084.3598</v>
       </c>
       <c r="F14" s="1">
-        <v>-11062.1933</v>
+        <v>-11084.3598</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127540.4515</v>
+        <v>127539.9696</v>
       </c>
       <c r="I14" s="1">
-        <v>7991.3063</v>
+        <v>7522.6815</v>
       </c>
       <c r="J14" s="1">
-        <v>135531.7578</v>
+        <v>135062.6511</v>
       </c>
       <c r="K14" s="1">
-        <v>115157.5137</v>
+        <v>115631.4493</v>
       </c>
       <c r="L14" s="1">
-        <v>10.41</v>
+        <v>10.4319</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127540.4515</v>
+        <v>127539.9696</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0319</v>
+        <v>0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.2392</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="F3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0254</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.1873</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E4" s="1">
-        <v>1978.7432</v>
+        <v>1974.7874</v>
       </c>
       <c r="F4" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1074</v>
+        <v>10.1277</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0209</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.4058</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E5" s="1">
-        <v>2960.3576</v>
+        <v>2954.44</v>
       </c>
       <c r="F5" s="1">
-        <v>941.698</v>
+        <v>955.431</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30804.8889</v>
+        <v>30681.8593</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30804.8889</v>
+        <v>30681.8593</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1339</v>
+        <v>10.1542</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9799.1211</v>
+        <v>-9961.992099999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0214</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.2688</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E6" s="1">
-        <v>3902.0556</v>
+        <v>3909.871</v>
       </c>
       <c r="F6" s="1">
-        <v>993.3857</v>
+        <v>975.5679</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40069.4284</v>
+        <v>40069.5306</v>
       </c>
       <c r="I6" s="1">
-        <v>200.8789</v>
+        <v>38.0079</v>
       </c>
       <c r="J6" s="1">
-        <v>40270.3073</v>
+        <v>40107.5385</v>
       </c>
       <c r="K6" s="1">
-        <v>39799.1211</v>
+        <v>39961.9921</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1995</v>
+        <v>10.2208</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>266.4322</v>
+        <v>265.8996</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9934.4467</v>
+        <v>-9772.1083</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0131</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.4938</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E7" s="1">
-        <v>4895.4413</v>
+        <v>4885.4388</v>
       </c>
       <c r="F7" s="1">
-        <v>967.0824</v>
+        <v>976.3286000000001</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51371.7816</v>
+        <v>51164.2237</v>
       </c>
       <c r="I7" s="1">
-        <v>266.4322</v>
+        <v>265.8996</v>
       </c>
       <c r="J7" s="1">
-        <v>51638.2138</v>
+        <v>51430.1233</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2136</v>
+        <v>10.2345</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10148.369</v>
+        <v>-10265.8996</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0272</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.5481</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E8" s="1">
-        <v>5862.5236</v>
+        <v>5861.7674</v>
       </c>
       <c r="F8" s="1">
-        <v>959.2309</v>
+        <v>946.1454</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61838.4856</v>
+        <v>61706.8253</v>
       </c>
       <c r="I8" s="1">
-        <v>118.0632</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61956.5488</v>
+        <v>61706.8253</v>
       </c>
       <c r="K8" s="1">
-        <v>60148.369</v>
+        <v>60265.8996</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2598</v>
+        <v>10.2812</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10118.0632</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0052</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.3262</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E9" s="1">
-        <v>6821.7545</v>
+        <v>6807.9128</v>
       </c>
       <c r="F9" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70442.8015</v>
+        <v>70158.94530000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70442.8015</v>
+        <v>70158.94530000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70266.4322</v>
+        <v>70265.8996</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3003</v>
+        <v>10.3212</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1319.0678</v>
+        <v>1318.8977</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8680.932199999999</v>
+        <v>-8681.1023</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.021</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.462</v>
       </c>
       <c r="C10" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D10" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E10" s="1">
-        <v>7790.165</v>
+        <v>7774.3858</v>
       </c>
       <c r="F10" s="1">
-        <v>1081.922</v>
+        <v>1079.7384</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>81500.7059</v>
+        <v>81173.14</v>
       </c>
       <c r="I10" s="1">
-        <v>1319.0678</v>
+        <v>1318.8977</v>
       </c>
       <c r="J10" s="1">
-        <v>82819.77370000001</v>
+        <v>82492.0377</v>
       </c>
       <c r="K10" s="1">
-        <v>80266.4322</v>
+        <v>80265.8996</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3036</v>
+        <v>10.3244</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11319.0678</v>
+        <v>-11318.8977</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0295</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.5775</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E11" s="1">
-        <v>8872.087</v>
+        <v>8854.1242</v>
       </c>
       <c r="F11" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93844.49980000001</v>
+        <v>93466.7917</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>93844.49980000001</v>
+        <v>93466.7917</v>
       </c>
       <c r="K11" s="1">
-        <v>91585.5</v>
+        <v>91584.79730000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3229</v>
+        <v>10.3437</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.011</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.7066</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E12" s="1">
-        <v>9817.4899</v>
+        <v>9797.636200000001</v>
       </c>
       <c r="F12" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105111.9377</v>
+        <v>104689.7021</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105111.9377</v>
+        <v>104689.7021</v>
       </c>
       <c r="K12" s="1">
-        <v>101585.5</v>
+        <v>101584.7973</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3474</v>
+        <v>10.3683</v>
       </c>
       <c r="M12" s="1">
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
-        <v>1596.9757</v>
+        <v>1593.7424</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8403.024299999999</v>
+        <v>-8406.257600000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0122</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.1511</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E13" s="1">
-        <v>10751.4933</v>
+        <v>10729.7677</v>
       </c>
       <c r="F13" s="1">
-        <v>621.8269</v>
+        <v>666.3424</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119890.9765</v>
+        <v>119409.4386</v>
       </c>
       <c r="I13" s="1">
-        <v>1596.9757</v>
+        <v>1593.7424</v>
       </c>
       <c r="J13" s="1">
-        <v>121487.9521</v>
+        <v>121003.181</v>
       </c>
       <c r="K13" s="1">
-        <v>111585.5</v>
+        <v>111584.7973</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3786</v>
+        <v>10.3996</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6934.0537</v>
+        <v>-7445.377</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0554</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.5294</v>
       </c>
       <c r="C14" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D14" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E14" s="1">
-        <v>11373.3201</v>
+        <v>11396.1101</v>
       </c>
       <c r="F14" s="1">
-        <v>-11373.3201</v>
+        <v>-11396.1101</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131127.5571</v>
+        <v>131127.0617</v>
       </c>
       <c r="I14" s="1">
-        <v>4662.922</v>
+        <v>4148.3654</v>
       </c>
       <c r="J14" s="1">
-        <v>135790.4791</v>
+        <v>135275.4271</v>
       </c>
       <c r="K14" s="1">
-        <v>118519.5537</v>
+        <v>119030.1743</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4208</v>
+        <v>10.4448</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131127.5571</v>
+        <v>131127.0617</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0327</v>
+        <v>0.0326</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.2392</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="F3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9745.7809</v>
+        <v>9706.9115</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0254</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.1873</v>
       </c>
       <c r="C4" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D4" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E4" s="1">
-        <v>1978.7432</v>
+        <v>1974.7874</v>
       </c>
       <c r="F4" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20158.0508</v>
+        <v>20077.4658</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1074</v>
+        <v>10.1277</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0209</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.4058</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E5" s="1">
-        <v>2960.3576</v>
+        <v>2954.44</v>
       </c>
       <c r="F5" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30804.8889</v>
+        <v>30681.8593</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30804.8889</v>
+        <v>30681.8593</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1339</v>
+        <v>10.1542</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0214</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.2688</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E6" s="1">
-        <v>3921.3601</v>
+        <v>3913.5162</v>
       </c>
       <c r="F6" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40267.6626</v>
+        <v>40106.8882</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40267.6626</v>
+        <v>40106.8882</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2005</v>
+        <v>10.221</v>
       </c>
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
       <c r="N6" s="1">
-        <v>266.4322</v>
+        <v>265.8996</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9733.567800000001</v>
+        <v>-9734.100399999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0132</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.4938</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E7" s="1">
-        <v>4895.1837</v>
+        <v>4885.3902</v>
       </c>
       <c r="F7" s="1">
-        <v>978.3330999999999</v>
+        <v>976.3286000000001</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51369.0789</v>
+        <v>51163.7143</v>
       </c>
       <c r="I7" s="1">
-        <v>266.4322</v>
+        <v>265.8996</v>
       </c>
       <c r="J7" s="1">
-        <v>51635.5111</v>
+        <v>51429.6139</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2141</v>
+        <v>10.2346</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10266.4322</v>
+        <v>-10265.8996</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0272</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.5481</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E8" s="1">
-        <v>5873.5168</v>
+        <v>5861.7187</v>
       </c>
       <c r="F8" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61954.4431</v>
+        <v>61706.3132</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61954.4431</v>
+        <v>61706.3132</v>
       </c>
       <c r="K8" s="1">
-        <v>60266.4322</v>
+        <v>60265.8996</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2607</v>
+        <v>10.2813</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0052</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.3262</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E9" s="1">
-        <v>6821.5549</v>
+        <v>6807.8641</v>
       </c>
       <c r="F9" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70440.7401</v>
+        <v>70158.444</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70440.7401</v>
+        <v>70158.444</v>
       </c>
       <c r="K9" s="1">
-        <v>70266.4322</v>
+        <v>70265.8996</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3006</v>
+        <v>10.3213</v>
       </c>
       <c r="M9" s="1">
         <v>0.25</v>
       </c>
       <c r="N9" s="1">
-        <v>1321.5413</v>
+        <v>1318.8867</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8678.458699999999</v>
+        <v>-8681.113300000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.021</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.462</v>
       </c>
       <c r="C10" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D10" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E10" s="1">
-        <v>7789.9653</v>
+        <v>7774.3372</v>
       </c>
       <c r="F10" s="1">
-        <v>1082.1584</v>
+        <v>1079.7374</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81498.6173</v>
+        <v>81172.6321</v>
       </c>
       <c r="I10" s="1">
-        <v>1321.5413</v>
+        <v>1318.8867</v>
       </c>
       <c r="J10" s="1">
-        <v>82820.1586</v>
+        <v>82491.51880000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80266.4322</v>
+        <v>80265.8996</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3038</v>
+        <v>10.3245</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11321.5413</v>
+        <v>-11318.8867</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0296</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.5775</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E11" s="1">
-        <v>8872.1237</v>
+        <v>8854.0746</v>
       </c>
       <c r="F11" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93844.88890000001</v>
+        <v>93466.2672</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>93844.88890000001</v>
+        <v>93466.2672</v>
       </c>
       <c r="K11" s="1">
-        <v>91587.97349999999</v>
+        <v>91584.78630000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3231</v>
+        <v>10.3438</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.011</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.7066</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E12" s="1">
-        <v>9817.5267</v>
+        <v>9797.586499999999</v>
       </c>
       <c r="F12" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>105112.3316</v>
+        <v>104689.1712</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105112.3316</v>
+        <v>104689.1712</v>
       </c>
       <c r="K12" s="1">
-        <v>101587.9735</v>
+        <v>101584.7863</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3476</v>
+        <v>10.3683</v>
       </c>
       <c r="M12" s="1">
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
-        <v>1596.9823</v>
+        <v>1593.7334</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8403.0177</v>
+        <v>-8406.266600000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0122</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.1511</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E13" s="1">
-        <v>10751.53</v>
+        <v>10729.718</v>
       </c>
       <c r="F13" s="1">
-        <v>943.4699000000001</v>
+        <v>988.7165</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119891.3867</v>
+        <v>119408.8857</v>
       </c>
       <c r="I13" s="1">
-        <v>1596.9823</v>
+        <v>1593.7334</v>
       </c>
       <c r="J13" s="1">
-        <v>121488.369</v>
+        <v>121002.6191</v>
       </c>
       <c r="K13" s="1">
-        <v>111587.9735</v>
+        <v>111584.7863</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3788</v>
+        <v>10.3996</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10520.7276</v>
+        <v>-11047.4242</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0554</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.5294</v>
       </c>
       <c r="C14" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D14" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E14" s="1">
-        <v>11695</v>
+        <v>11718.4345</v>
       </c>
       <c r="F14" s="1">
-        <v>-11695</v>
+        <v>-11718.4345</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134836.3328</v>
+        <v>134835.8233</v>
       </c>
       <c r="I14" s="1">
-        <v>1076.2547</v>
+        <v>546.3092</v>
       </c>
       <c r="J14" s="1">
-        <v>135912.5875</v>
+        <v>135382.1325</v>
       </c>
       <c r="K14" s="1">
-        <v>122108.701</v>
+        <v>122632.2106</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4411</v>
+        <v>10.4649</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134836.3328</v>
+        <v>134835.8233</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0336</v>
+        <v>0.0334</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4497</v>
+        <v>10.4706</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4039</v>
+        <v>10.4248</v>
       </c>
       <c r="E3" s="1">
-        <v>10.41</v>
+        <v>10.4319</v>
       </c>
       <c r="F3" s="1">
-        <v>10.4208</v>
+        <v>10.4448</v>
       </c>
       <c r="G3" s="1">
-        <v>10.4411</v>
+        <v>10.4649</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1216</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1567</v>
+        <v>0.1443</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1512</v>
+        <v>0.1399</v>
       </c>
       <c r="E4" s="3">
-        <v>0.154</v>
+        <v>0.1423</v>
       </c>
       <c r="F4" s="3">
-        <v>0.156</v>
+        <v>0.1439</v>
       </c>
       <c r="G4" s="3">
-        <v>0.157</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0689</v>
       </c>
       <c r="C5" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0804</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0766</v>
+        <v>0.0785</v>
       </c>
       <c r="E5" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.0796</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0786</v>
+        <v>0.0804</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0789</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.4699</v>
       </c>
       <c r="C6" s="4">
-        <v>1.7316</v>
+        <v>1.5409</v>
       </c>
       <c r="D6" s="4">
-        <v>1.71</v>
+        <v>1.5223</v>
       </c>
       <c r="E6" s="4">
-        <v>1.7208</v>
+        <v>1.531</v>
       </c>
       <c r="F6" s="4">
-        <v>1.7269</v>
+        <v>1.5371</v>
       </c>
       <c r="G6" s="4">
-        <v>1.7326</v>
+        <v>1.5429</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2551</v>
+        <v>0.246</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2521</v>
+        <v>0.2435</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2532</v>
+        <v>0.2445</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2542</v>
+        <v>0.2454</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2549</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3161.0358</v>
+        <v>3154.6956</v>
       </c>
       <c r="D8" s="1">
-        <v>3099.9709</v>
+        <v>3106.1819</v>
       </c>
       <c r="E8" s="1">
-        <v>3148.8201</v>
+        <v>3154.1308</v>
       </c>
       <c r="F8" s="1">
-        <v>3182.4757</v>
+        <v>3178.5396</v>
       </c>
       <c r="G8" s="1">
-        <v>3184.9557</v>
+        <v>3178.5197</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P92_KFSDIV.xlsx
+++ b/output/1Y_P92_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>3884.6607</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0987</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2048</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1741</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1432</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
